--- a/Tables/Table 2 - Network Clusters.xlsx
+++ b/Tables/Table 2 - Network Clusters.xlsx
@@ -55,15 +55,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -71,15 +77,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,79 +548,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>76</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>160</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>150</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>106</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
